--- a/docs/ST1/ST1_26.07.24_output.xlsx
+++ b/docs/ST1/ST1_26.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>quity</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -528,6 +533,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -540,22 +546,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1730735966.1832645</t>
+          <t>1731623247.6979434</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1730735966.5522895</t>
+          <t>1731623248.087189</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730735966.1832645.png</t>
+          <t>./test_images/SBER1731623247.6979434.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730735966.5522895.png</t>
+          <t>./test_images/SBER1731623248.087189.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -576,6 +582,9 @@
       </c>
       <c r="K3" t="n">
         <v>1.950000000000045</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="4">
@@ -589,22 +598,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1730735966.922345</t>
+          <t>1731623248.4805717</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1730735967.4095135</t>
+          <t>1731623249.0032723</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730735966.922345.png</t>
+          <t>./test_images/SBER1731623248.4805717.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730735967.4095135.png</t>
+          <t>./test_images/SBER1731623249.0032723.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -625,6 +634,9 @@
       </c>
       <c r="K4" t="n">
         <v>2.259999999999991</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.76</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +650,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1730735967.4254434</t>
+          <t>1731623249.022223</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1730735968.0891583</t>
+          <t>1731623249.7432098</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730735967.4254434.png</t>
+          <t>./test_images/SBER1731623249.022223.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730735968.0891583.png</t>
+          <t>./test_images/SBER1731623249.7432098.png</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -674,6 +686,9 @@
       </c>
       <c r="K5" t="n">
         <v>-0.1299999999999955</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="6">
@@ -687,22 +702,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1730735968.1047428</t>
+          <t>1731623249.760166</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1730735969.0036874</t>
+          <t>1731623250.757005</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730735968.1047428.png</t>
+          <t>./test_images/SBER1731623249.760166.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730735969.0036874.png</t>
+          <t>./test_images/SBER1731623250.757005.png</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -723,6 +738,9 @@
       </c>
       <c r="K6" t="n">
         <v>1.079999999999984</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="7">
@@ -736,22 +754,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1730735969.4963984</t>
+          <t>1731623251.2625206</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1730735970.6361442</t>
+          <t>1731623252.3323877</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730735969.4963984.png</t>
+          <t>./test_images/SBER1731623251.2625206.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730735970.6361442.png</t>
+          <t>./test_images/SBER1731623252.3323877.png</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -772,6 +790,9 @@
       </c>
       <c r="K7" t="n">
         <v>0.910000000000025</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="8">
@@ -785,22 +806,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1730735970.6511314</t>
+          <t>1731623252.3483446</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1730735974.3143725</t>
+          <t>1731623256.4575763</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730735970.6511314.png</t>
+          <t>./test_images/SBER1731623252.3483446.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730735974.3143725.png</t>
+          <t>./test_images/SBER1731623256.4575763.png</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -821,6 +842,9 @@
       </c>
       <c r="K8" t="n">
         <v>1.410000000000025</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="9">
@@ -834,13 +858,13 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1730735974.5098822</t>
+          <t>1731623256.6487503</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730735974.5098822.png</t>
+          <t>./test_images/SBER1731623256.6487503.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -857,8 +881,15 @@
       <c r="I9" t="n">
         <v>294.52</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>294.52</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -871,22 +902,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1730735979.845819</t>
+          <t>1731623262.6136324</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1730735979.943529</t>
+          <t>1731623262.715942</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730735979.845819.png</t>
+          <t>./test_images/GAZP1731623262.6136324.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730735979.943529.png</t>
+          <t>./test_images/GAZP1731623262.715942.png</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -907,6 +938,9 @@
       </c>
       <c r="K10" t="n">
         <v>1.050000000000011</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="11">
@@ -920,22 +954,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1730735980.374377</t>
+          <t>1731623263.1620028</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1730735980.8770616</t>
+          <t>1731623263.6895137</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730735980.374377.png</t>
+          <t>./test_images/GAZP1731623263.1620028.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730735980.8770616.png</t>
+          <t>./test_images/GAZP1731623263.6895137.png</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -956,6 +990,9 @@
       </c>
       <c r="K11" t="n">
         <v>0.8800000000000239</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="12">
@@ -969,22 +1006,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1730735980.8929908</t>
+          <t>1731623263.705471</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1730735981.6878436</t>
+          <t>1731623264.666971</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730735980.8929908.png</t>
+          <t>./test_images/GAZP1731623263.705471.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730735981.6878436.png</t>
+          <t>./test_images/GAZP1731623264.666971.png</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1005,6 +1042,9 @@
       </c>
       <c r="K12" t="n">
         <v>-0.7800000000000011</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.58</v>
       </c>
     </row>
     <row r="13">
@@ -1018,22 +1058,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1730735981.7038007</t>
+          <t>1731623264.6829123</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1730735982.4795365</t>
+          <t>1731623265.4887695</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730735981.7038007.png</t>
+          <t>./test_images/GAZP1731623264.6829123.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730735982.4795365.png</t>
+          <t>./test_images/GAZP1731623265.4887695.png</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1054,6 +1094,9 @@
       </c>
       <c r="K13" t="n">
         <v>-0.1900000000000261</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="14">
@@ -1067,22 +1110,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1730735982.4964914</t>
+          <t>1731623265.5047</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1730735983.7107534</t>
+          <t>1731623266.7244558</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730735982.4964914.png</t>
+          <t>./test_images/GAZP1731623265.5047.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730735983.7107534.png</t>
+          <t>./test_images/GAZP1731623266.7244558.png</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1103,6 +1146,9 @@
       </c>
       <c r="K14" t="n">
         <v>-0.7400000000000091</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -1116,22 +1162,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1730735983.7267118</t>
+          <t>1731623266.7403858</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1730735986.817738</t>
+          <t>1731623270.070844</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730735983.7267118.png</t>
+          <t>./test_images/GAZP1731623266.7403858.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730735986.817738.png</t>
+          <t>./test_images/GAZP1731623270.070844.png</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1152,6 +1198,9 @@
       </c>
       <c r="K15" t="n">
         <v>-1.870000000000005</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-1.4</v>
       </c>
     </row>
     <row r="16">
@@ -1165,22 +1214,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1730735986.8336957</t>
+          <t>1731623270.0868645</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1730735987.5996568</t>
+          <t>1731623271.0000403</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730735986.8336957.png</t>
+          <t>./test_images/GAZP1731623270.0868645.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730735987.5996568.png</t>
+          <t>./test_images/GAZP1731623271.0000403.png</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1201,6 +1250,9 @@
       </c>
       <c r="K16" t="n">
         <v>0.7599999999999909</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1214,22 +1266,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1730735988.6249952</t>
+          <t>1731623271.9230418</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1730735989.0352585</t>
+          <t>1731623272.4065378</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730735988.6249952.png</t>
+          <t>./test_images/GAZP1731623271.9230418.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730735989.0352585.png</t>
+          <t>./test_images/GAZP1731623272.4065378.png</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1250,6 +1302,9 @@
       </c>
       <c r="K17" t="n">
         <v>0.5600000000000023</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="18">
@@ -1263,22 +1318,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1730735989.3636134</t>
+          <t>1731623272.7544975</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1730735989.980025</t>
+          <t>1731623273.4138625</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735989.3636134.png</t>
+          <t>./test_images/LKOH1731623272.7544975.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735989.980025.png</t>
+          <t>./test_images/LKOH1731623273.4138625.png</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1299,6 +1354,9 @@
       </c>
       <c r="K18" t="n">
         <v>-43</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="19">
@@ -1312,22 +1370,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1730735989.9969797</t>
+          <t>1731623273.429821</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1730735993.4625936</t>
+          <t>1731623276.7889626</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735989.9969797.png</t>
+          <t>./test_images/LKOH1731623273.429821.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735993.4625936.png</t>
+          <t>./test_images/LKOH1731623276.7889626.png</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1348,6 +1406,9 @@
       </c>
       <c r="K19" t="n">
         <v>-16</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="20">
@@ -1361,22 +1422,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1730735993.4795198</t>
+          <t>1731623276.8049214</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1730735993.8524294</t>
+          <t>1731623277.166198</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735993.4795198.png</t>
+          <t>./test_images/LKOH1731623276.8049214.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735993.8524294.png</t>
+          <t>./test_images/LKOH1731623277.166198.png</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1397,6 +1458,9 @@
       </c>
       <c r="K20" t="n">
         <v>23.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="21">
@@ -1410,22 +1474,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1730735994.2026496</t>
+          <t>1731623277.619313</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1730735995.1473057</t>
+          <t>1731623278.6346433</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735994.2026496.png</t>
+          <t>./test_images/LKOH1731623277.619313.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735995.1473057.png</t>
+          <t>./test_images/LKOH1731623278.6346433.png</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1446,6 +1510,9 @@
       </c>
       <c r="K21" t="n">
         <v>34</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="22">
@@ -1459,22 +1526,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1730735995.694884</t>
+          <t>1731623279.2296736</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1730735996.4935117</t>
+          <t>1731623280.047365</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735995.694884.png</t>
+          <t>./test_images/LKOH1731623279.2296736.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735996.4935117.png</t>
+          <t>./test_images/LKOH1731623280.047365.png</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1495,6 +1562,9 @@
       </c>
       <c r="K22" t="n">
         <v>6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="23">
@@ -1508,22 +1578,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1730735996.8002954</t>
+          <t>1731623280.4273233</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1730735997.1174443</t>
+          <t>1731623280.746062</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735996.8002954.png</t>
+          <t>./test_images/LKOH1731623280.4273233.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735997.1174443.png</t>
+          <t>./test_images/LKOH1731623280.746062.png</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1544,6 +1614,9 @@
       </c>
       <c r="K23" t="n">
         <v>51.5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row r="24">
@@ -1557,22 +1630,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1730735997.4789176</t>
+          <t>1731623281.1125684</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1730736002.8721054</t>
+          <t>1731623287.0164218</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735997.4789176.png</t>
+          <t>./test_images/LKOH1731623281.1125684.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730736002.8721054.png</t>
+          <t>./test_images/LKOH1731623287.0164218.png</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1593,6 +1666,9 @@
       </c>
       <c r="K24" t="n">
         <v>-34</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="25">
@@ -1606,22 +1682,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1730736008.0431721</t>
+          <t>1731623292.4808557</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1730736008.817254</t>
+          <t>1731623293.284757</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736008.0431721.png</t>
+          <t>./test_images/ROSN1731623292.4808557.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736008.817254.png</t>
+          <t>./test_images/ROSN1731623293.284757.png</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1642,6 +1718,9 @@
       </c>
       <c r="K25" t="n">
         <v>9.050000000000068</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.69</v>
       </c>
     </row>
     <row r="26">
@@ -1655,22 +1734,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1730736009.0386622</t>
+          <t>1731623293.5316455</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1730736010.1203952</t>
+          <t>1731623294.7096107</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736009.0386622.png</t>
+          <t>./test_images/ROSN1731623293.5316455.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736010.1203952.png</t>
+          <t>./test_images/ROSN1731623294.7096107.png</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1691,6 +1770,9 @@
       </c>
       <c r="K26" t="n">
         <v>6.149999999999977</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.16</v>
       </c>
     </row>
     <row r="27">
@@ -1704,22 +1786,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1730736011.0519187</t>
+          <t>1731623295.86914</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1730736011.7063873</t>
+          <t>1731623296.5566273</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736011.0519187.png</t>
+          <t>./test_images/ROSN1731623295.86914.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736011.7063873.png</t>
+          <t>./test_images/ROSN1731623296.5566273.png</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1739,6 +1821,9 @@
         <v>521.5</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1753,22 +1838,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1730736011.7223456</t>
+          <t>1731623296.5725572</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1730736013.1918101</t>
+          <t>1731623298.126886</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736011.7223456.png</t>
+          <t>./test_images/ROSN1731623296.5725572.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736013.1918101.png</t>
+          <t>./test_images/ROSN1731623298.126886.png</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1789,6 +1874,9 @@
       </c>
       <c r="K28" t="n">
         <v>0.4500000000000455</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="29">
@@ -1802,22 +1890,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1730736013.8294148</t>
+          <t>1731623298.7971282</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1730736015.0480711</t>
+          <t>1731623300.031931</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736013.8294148.png</t>
+          <t>./test_images/ROSN1731623298.7971282.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736015.0480711.png</t>
+          <t>./test_images/ROSN1731623300.031931.png</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1838,6 +1926,9 @@
       </c>
       <c r="K29" t="n">
         <v>1.850000000000023</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="30">
@@ -1851,13 +1942,13 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1730736015.274287</t>
+          <t>1731623300.2799304</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736015.274287.png</t>
+          <t>./test_images/ROSN1731623300.2799304.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1874,8 +1965,15 @@
       <c r="I30" t="n">
         <v>523.55</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>523.55</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1888,22 +1986,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1730736017.022101</t>
+          <t>1731623302.171728</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1730736019.031943</t>
+          <t>1731623304.4200287</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736017.022101.png</t>
+          <t>./test_images/NVTK1731623302.171728.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736019.031943.png</t>
+          <t>./test_images/NVTK1731623304.4200287.png</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1924,6 +2022,9 @@
       </c>
       <c r="K31" t="n">
         <v>-2.400000000000091</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="32">
@@ -1937,22 +2038,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1730736020.114266</t>
+          <t>1731623305.8410428</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1730736020.623906</t>
+          <t>1731623306.4365852</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736020.114266.png</t>
+          <t>./test_images/NVTK1731623305.8410428.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736020.623906.png</t>
+          <t>./test_images/NVTK1731623306.4365852.png</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1973,6 +2074,9 @@
       </c>
       <c r="K32" t="n">
         <v>2.399999999999864</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="33">
@@ -1986,22 +2090,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1730736020.6408303</t>
+          <t>1731623306.4535675</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1730736020.7395654</t>
+          <t>1731623306.5702703</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736020.6408303.png</t>
+          <t>./test_images/NVTK1731623306.4535675.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736020.7395654.png</t>
+          <t>./test_images/NVTK1731623306.5702703.png</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2022,6 +2126,9 @@
       </c>
       <c r="K33" t="n">
         <v>8.199999999999818</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="34">
@@ -2035,22 +2142,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1730736021.200342</t>
+          <t>1731623307.0509772</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1730736021.580824</t>
+          <t>1731623307.4629068</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736021.200342.png</t>
+          <t>./test_images/NVTK1731623307.0509772.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736021.580824.png</t>
+          <t>./test_images/NVTK1731623307.4629068.png</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2071,6 +2178,9 @@
       </c>
       <c r="K34" t="n">
         <v>8.400000000000091</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="35">
@@ -2084,22 +2194,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1730736021.6172342</t>
+          <t>1731623307.4798615</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1730736022.524836</t>
+          <t>1731623308.4095004</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736021.6172342.png</t>
+          <t>./test_images/NVTK1731623307.4798615.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736022.524836.png</t>
+          <t>./test_images/NVTK1731623308.4095004.png</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2120,6 +2230,9 @@
       </c>
       <c r="K35" t="n">
         <v>-4.199999999999818</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="36">
@@ -2133,22 +2246,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1730736022.5417912</t>
+          <t>1731623308.42543</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1730736023.3017037</t>
+          <t>1731623309.2271852</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736022.5417912.png</t>
+          <t>./test_images/NVTK1731623308.42543.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736023.3017037.png</t>
+          <t>./test_images/NVTK1731623309.2271852.png</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2169,6 +2282,9 @@
       </c>
       <c r="K36" t="n">
         <v>-0.7999999999999545</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="37">
@@ -2182,22 +2298,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1730736023.3186586</t>
+          <t>1731623309.2441115</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1730736024.3936439</t>
+          <t>1731623310.4727578</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736023.3186586.png</t>
+          <t>./test_images/NVTK1731623309.2441115.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736024.3936439.png</t>
+          <t>./test_images/NVTK1731623310.4727578.png</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2218,6 +2334,9 @@
       </c>
       <c r="K37" t="n">
         <v>-12.79999999999995</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-1.19</v>
       </c>
     </row>
     <row r="38">
@@ -2231,22 +2350,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1730736024.4105988</t>
+          <t>1731623310.4896848</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1730736024.9899387</t>
+          <t>1731623311.0308356</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736024.4105988.png</t>
+          <t>./test_images/NVTK1731623310.4896848.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736024.9899387.png</t>
+          <t>./test_images/NVTK1731623311.0308356.png</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2267,6 +2386,9 @@
       </c>
       <c r="K38" t="n">
         <v>-0.5999999999999091</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="39">
@@ -2280,22 +2402,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1730736025.0068922</t>
+          <t>1731623311.0477908</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1730736026.5915232</t>
+          <t>1731623312.9653509</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736025.0068922.png</t>
+          <t>./test_images/NVTK1731623311.0477908.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736026.5915232.png</t>
+          <t>./test_images/NVTK1731623312.9653509.png</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2316,6 +2438,9 @@
       </c>
       <c r="K39" t="n">
         <v>3.599999999999909</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="40">
@@ -2329,22 +2454,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1730736030.70334</t>
+          <t>1731623317.462138</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1730736031.0292802</t>
+          <t>1731623317.8040159</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736030.70334.png</t>
+          <t>./test_images/GMKN1731623317.462138.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736031.0292802.png</t>
+          <t>./test_images/GMKN1731623317.8040159.png</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2365,6 +2490,9 @@
       </c>
       <c r="K40" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="41">
@@ -2378,22 +2506,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1730736031.0452018</t>
+          <t>1731623317.8201923</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1730736031.8799982</t>
+          <t>1731623318.6982605</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736031.0452018.png</t>
+          <t>./test_images/GMKN1731623317.8201923.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736031.8799982.png</t>
+          <t>./test_images/GMKN1731623318.6982605.png</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2414,6 +2542,9 @@
       </c>
       <c r="K41" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="42">
@@ -2427,22 +2558,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1730736034.5943618</t>
+          <t>1731623321.6045504</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1730736035.59858</t>
+          <t>1731623322.679591</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736034.5943618.png</t>
+          <t>./test_images/GMKN1731623321.6045504.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736035.59858.png</t>
+          <t>./test_images/GMKN1731623322.679591.png</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2463,6 +2594,9 @@
       </c>
       <c r="K42" t="n">
         <v>2.539999999999992</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="43">
@@ -2476,22 +2610,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1730736036.1196003</t>
+          <t>1731623323.1513748</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1730736036.6740847</t>
+          <t>1731623323.703397</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736036.1196003.png</t>
+          <t>./test_images/GMKN1731623323.1513748.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736036.6740847.png</t>
+          <t>./test_images/GMKN1731623323.703397.png</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2512,6 +2646,9 @@
       </c>
       <c r="K43" t="n">
         <v>0.9000000000000057</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.7100000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -2525,22 +2662,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1730736043.343135</t>
+          <t>1731623331.1325188</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1730736045.6644418</t>
+          <t>1731623333.6446495</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730736043.343135.png</t>
+          <t>./test_images/NLMK1731623331.1325188.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730736045.6644418.png</t>
+          <t>./test_images/NLMK1731623333.6446495.png</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2561,6 +2698,9 @@
       </c>
       <c r="K44" t="n">
         <v>1.419999999999987</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -2574,22 +2714,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1730736046.97511</t>
+          <t>1731623334.8858802</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1730736047.6787705</t>
+          <t>1731623335.6571589</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730736046.97511.png</t>
+          <t>./test_images/NLMK1731623334.8858802.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730736047.6787705.png</t>
+          <t>./test_images/NLMK1731623335.6571589.png</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2610,6 +2750,9 @@
       </c>
       <c r="K45" t="n">
         <v>-1.5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.8500000000000001</v>
       </c>
     </row>
     <row r="46">
@@ -2623,22 +2766,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1730736047.6956928</t>
+          <t>1731623335.6741416</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1730736048.5703611</t>
+          <t>1731623336.5917168</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730736047.6956928.png</t>
+          <t>./test_images/NLMK1731623335.6741416.png</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730736048.5703611.png</t>
+          <t>./test_images/NLMK1731623336.5917168.png</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2659,6 +2802,9 @@
       </c>
       <c r="K46" t="n">
         <v>2.879999999999995</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="47">
@@ -2672,22 +2818,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1730736053.7789526</t>
+          <t>1731623342.3030236</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1730736054.8064158</t>
+          <t>1731623343.3377094</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730736053.7789526.png</t>
+          <t>./test_images/NLMK1731623342.3030236.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730736054.8064158.png</t>
+          <t>./test_images/NLMK1731623343.3377094.png</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2708,6 +2854,9 @@
       </c>
       <c r="K47" t="n">
         <v>1.180000000000007</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="48">
@@ -2721,22 +2870,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1730736062.434735</t>
+          <t>1731623351.7523296</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1730736063.0954044</t>
+          <t>1731623352.4773812</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730736062.434735.png</t>
+          <t>./test_images/MAGN1731623351.7523296.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730736063.0954044.png</t>
+          <t>./test_images/MAGN1731623352.4773812.png</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2757,6 +2906,9 @@
       </c>
       <c r="K48" t="n">
         <v>-0.2999999999999972</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -2770,22 +2922,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1730736063.1123583</t>
+          <t>1731623352.4943368</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1730736068.9496253</t>
+          <t>1731623358.5017698</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730736063.1123583.png</t>
+          <t>./test_images/MAGN1731623352.4943368.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730736068.9496253.png</t>
+          <t>./test_images/MAGN1731623358.5017698.png</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2806,6 +2958,9 @@
       </c>
       <c r="K49" t="n">
         <v>-0.3099999999999952</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="50">
@@ -2819,22 +2974,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1730736069.3994222</t>
+          <t>1731623358.98875</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1730736071.0393925</t>
+          <t>1731623360.6906016</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736069.3994222.png</t>
+          <t>./test_images/CHMF1731623358.98875.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736071.0393925.png</t>
+          <t>./test_images/CHMF1731623360.6906016.png</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2854,6 +3009,9 @@
         <v>1460</v>
       </c>
       <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2868,22 +3026,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1730736073.509206</t>
+          <t>1731623363.311882</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1730736074.0089426</t>
+          <t>1731623363.8288612</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736073.509206.png</t>
+          <t>./test_images/CHMF1731623363.311882.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736074.0089426.png</t>
+          <t>./test_images/CHMF1731623363.8288612.png</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2904,6 +3062,9 @@
       </c>
       <c r="K51" t="n">
         <v>4</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="52">
@@ -2917,22 +3078,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1730736074.0258672</t>
+          <t>1731623363.8448277</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1730736074.977755</t>
+          <t>1731623364.9857697</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736074.0258672.png</t>
+          <t>./test_images/CHMF1731623363.8448277.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736074.977755.png</t>
+          <t>./test_images/CHMF1731623364.9857697.png</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2953,6 +3114,9 @@
       </c>
       <c r="K52" t="n">
         <v>-3.200000000000045</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="53">
@@ -2966,22 +3130,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1730736074.9946826</t>
+          <t>1731623365.0036938</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1730736075.4943745</t>
+          <t>1731623365.5112197</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736074.9946826.png</t>
+          <t>./test_images/CHMF1731623365.0036938.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736075.4943745.png</t>
+          <t>./test_images/CHMF1731623365.5112197.png</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3002,6 +3166,9 @@
       </c>
       <c r="K53" t="n">
         <v>7.399999999999864</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="54">
@@ -3015,22 +3182,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1730736076.445914</t>
+          <t>1731623366.6309931</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1730736079.3636162</t>
+          <t>1731623369.9540353</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736076.445914.png</t>
+          <t>./test_images/CHMF1731623366.6309931.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736079.3636162.png</t>
+          <t>./test_images/CHMF1731623369.9540353.png</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3051,6 +3218,9 @@
       </c>
       <c r="K54" t="n">
         <v>-15.60000000000014</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-1.1</v>
       </c>
     </row>
     <row r="55">
@@ -3064,22 +3234,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1730736079.3810773</t>
+          <t>1731623369.97099</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1730736080.5940068</t>
+          <t>1731623371.2501137</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736079.3810773.png</t>
+          <t>./test_images/CHMF1731623369.97099.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736080.5940068.png</t>
+          <t>./test_images/CHMF1731623371.2501137.png</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3100,6 +3270,9 @@
       </c>
       <c r="K55" t="n">
         <v>8.399999999999864</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="56">
@@ -3113,22 +3286,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1730736082.2390418</t>
+          <t>1731623372.857253</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1730736082.7247436</t>
+          <t>1731623373.324812</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736082.2390418.png</t>
+          <t>./test_images/ALRS1731623372.857253.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736082.7247436.png</t>
+          <t>./test_images/ALRS1731623373.324812.png</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3149,6 +3322,9 @@
       </c>
       <c r="K56" t="n">
         <v>-0.03999999999999915</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="57">
@@ -3162,22 +3338,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1730736082.7416983</t>
+          <t>1731623373.3407698</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1730736084.3429346</t>
+          <t>1731623374.9176831</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736082.7416983.png</t>
+          <t>./test_images/ALRS1731623373.3407698.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736084.3429346.png</t>
+          <t>./test_images/ALRS1731623374.9176831.png</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3198,6 +3374,9 @@
       </c>
       <c r="K57" t="n">
         <v>0.240000000000002</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="58">
@@ -3211,22 +3390,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1730736085.8585782</t>
+          <t>1731623376.170559</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1730736086.3493555</t>
+          <t>1731623376.6272361</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736085.8585782.png</t>
+          <t>./test_images/ALRS1731623376.170559.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736086.3493555.png</t>
+          <t>./test_images/ALRS1731623376.6272361.png</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3247,6 +3426,9 @@
       </c>
       <c r="K58" t="n">
         <v>0.5799999999999983</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row r="59">
@@ -3260,22 +3442,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1730736086.7892814</t>
+          <t>1731623377.062538</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1730736087.8158007</t>
+          <t>1731623378.0422282</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736086.7892814.png</t>
+          <t>./test_images/ALRS1731623377.062538.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736087.8158007.png</t>
+          <t>./test_images/ALRS1731623378.0422282.png</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3296,6 +3478,9 @@
       </c>
       <c r="K59" t="n">
         <v>0.8900000000000006</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="60">
@@ -3309,22 +3494,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1730736088.3309002</t>
+          <t>1731623378.5421789</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1730736088.903878</t>
+          <t>1731623379.0806158</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736088.3309002.png</t>
+          <t>./test_images/ALRS1731623378.5421789.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736088.903878.png</t>
+          <t>./test_images/ALRS1731623379.0806158.png</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3345,6 +3530,9 @@
       </c>
       <c r="K60" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="61">
@@ -3358,22 +3546,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1730736099.345836</t>
+          <t>1731623389.7912276</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1730736100.3356385</t>
+          <t>1731623390.916251</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730736099.345836.png</t>
+          <t>./test_images/SELG1731623389.7912276.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730736100.3356385.png</t>
+          <t>./test_images/SELG1731623390.916251.png</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3394,6 +3582,9 @@
       </c>
       <c r="K61" t="n">
         <v>0.8000000000000043</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="62">
@@ -3407,22 +3598,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1730736100.6587746</t>
+          <t>1731623391.2616901</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1730736101.7527528</t>
+          <t>1731623392.2911215</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730736100.6587746.png</t>
+          <t>./test_images/SELG1731623391.2616901.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730736101.7527528.png</t>
+          <t>./test_images/SELG1731623392.2911215.png</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3443,6 +3634,9 @@
       </c>
       <c r="K62" t="n">
         <v>1.039999999999999</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="63">
@@ -3456,22 +3650,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1730736102.6341853</t>
+          <t>1731623393.1949685</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1730736105.664904</t>
+          <t>1731623396.3573449</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730736102.6341853.png</t>
+          <t>./test_images/SELG1731623393.1949685.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730736105.664904.png</t>
+          <t>./test_images/SELG1731623396.3573449.png</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3492,6 +3686,9 @@
       </c>
       <c r="K63" t="n">
         <v>-0.5700000000000003</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-1.01</v>
       </c>
     </row>
     <row r="64">
@@ -3505,22 +3702,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1730736107.3709524</t>
+          <t>1731623398.1961815</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1730736107.695058</t>
+          <t>1731623398.5020287</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730736107.3709524.png</t>
+          <t>./test_images/SELG1731623398.1961815.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730736107.695058.png</t>
+          <t>./test_images/SELG1731623398.5020287.png</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3541,6 +3738,9 @@
       </c>
       <c r="K64" t="n">
         <v>0.1799999999999997</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="65">
@@ -3554,22 +3754,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1730736108.301467</t>
+          <t>1731623399.158967</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1730736109.4587023</t>
+          <t>1731623400.3490841</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730736108.301467.png</t>
+          <t>./test_images/SOFL1731623399.158967.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730736109.4587023.png</t>
+          <t>./test_images/SOFL1731623400.3490841.png</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3590,6 +3790,9 @@
       </c>
       <c r="K65" t="n">
         <v>-0.2399999999999807</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="66">
@@ -3603,22 +3806,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1730736109.4756577</t>
+          <t>1731623400.365071</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1730736110.9002962</t>
+          <t>1731623401.852276</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730736109.4756577.png</t>
+          <t>./test_images/SOFL1731623400.365071.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730736110.9002962.png</t>
+          <t>./test_images/SOFL1731623401.852276.png</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3639,6 +3842,9 @@
       </c>
       <c r="K66" t="n">
         <v>-0.4399999999999977</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="67">
@@ -3652,22 +3858,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1730736110.917251</t>
+          <t>1731623401.868235</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1730736112.3979766</t>
+          <t>1731623403.3771474</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730736110.917251.png</t>
+          <t>./test_images/SOFL1731623401.868235.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730736112.3979766.png</t>
+          <t>./test_images/SOFL1731623403.3771474.png</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3688,6 +3894,9 @@
       </c>
       <c r="K67" t="n">
         <v>-1.260000000000019</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.8699999999999999</v>
       </c>
     </row>
     <row r="68">
@@ -3701,22 +3910,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1730736112.837825</t>
+          <t>1731623403.8313613</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1730736113.93461</t>
+          <t>1731623405.0286877</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730736112.837825.png</t>
+          <t>./test_images/SOFL1731623403.8313613.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730736113.93461.png</t>
+          <t>./test_images/SOFL1731623405.0286877.png</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3737,6 +3946,9 @@
       </c>
       <c r="K68" t="n">
         <v>-0.960000000000008</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="69">
@@ -3750,13 +3962,13 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1730736114.258843</t>
+          <t>1731623405.387519</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730736114.258843.png</t>
+          <t>./test_images/SOFL1731623405.387519.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -3773,8 +3985,15 @@
       <c r="I69" t="n">
         <v>141.66</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>141.66</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3787,22 +4006,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1730736121.640917</t>
+          <t>1731623413.0880883</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1730736122.7002797</t>
+          <t>1731623414.1585324</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736121.640917.png</t>
+          <t>./test_images/ABIO1731623413.0880883.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736122.7002797.png</t>
+          <t>./test_images/ABIO1731623414.1585324.png</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3823,6 +4042,9 @@
       </c>
       <c r="K70" t="n">
         <v>0.1699999999999946</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="71">
@@ -3836,22 +4058,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1730736123.7874277</t>
+          <t>1731623415.245613</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1730736124.8407187</t>
+          <t>1731623416.260759</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736123.7874277.png</t>
+          <t>./test_images/ABIO1731623415.245613.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736124.8407187.png</t>
+          <t>./test_images/ABIO1731623416.260759.png</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3872,6 +4094,9 @@
       </c>
       <c r="K71" t="n">
         <v>-1.32</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-2.25</v>
       </c>
     </row>
     <row r="72">
@@ -3885,22 +4110,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1730736124.8576748</t>
+          <t>1731623416.2777421</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1730736125.7243576</t>
+          <t>1731623417.1574614</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736124.8576748.png</t>
+          <t>./test_images/ABIO1731623416.2777421.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736125.7243576.png</t>
+          <t>./test_images/ABIO1731623417.1574614.png</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3921,6 +4146,9 @@
       </c>
       <c r="K72" t="n">
         <v>0.7199999999999989</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row r="73">
@@ -3934,22 +4162,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1730736127.5454473</t>
+          <t>1731623418.7621796</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1730736132.2440348</t>
+          <t>1731623423.2871687</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736127.5454473.png</t>
+          <t>./test_images/ABIO1731623418.7621796.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736132.2440348.png</t>
+          <t>./test_images/ABIO1731623423.2871687.png</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3970,6 +4198,9 @@
       </c>
       <c r="K73" t="n">
         <v>-0.1799999999999997</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="74">
@@ -3983,13 +4214,13 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1730736133.0967555</t>
+          <t>1731623424.1161544</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736133.0967555.png</t>
+          <t>./test_images/ABIO1731623424.1161544.png</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4006,8 +4237,15 @@
       <c r="I74" t="n">
         <v>56.2</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4020,22 +4258,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1730736134.9223895</t>
+          <t>1731623426.026492</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1730736135.6080933</t>
+          <t>1731623426.7217846</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736134.9223895.png</t>
+          <t>./test_images/BSPB1731623426.026492.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736135.6080933.png</t>
+          <t>./test_images/BSPB1731623426.7217846.png</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4056,6 +4294,9 @@
       </c>
       <c r="K75" t="n">
         <v>0.5600000000000023</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="76">
@@ -4069,22 +4310,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1730736137.9204292</t>
+          <t>1731623428.9475265</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1730736139.5874863</t>
+          <t>1731623430.6443684</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736137.9204292.png</t>
+          <t>./test_images/BSPB1731623428.9475265.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736139.5874863.png</t>
+          <t>./test_images/BSPB1731623430.6443684.png</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4105,6 +4346,9 @@
       </c>
       <c r="K76" t="n">
         <v>3.269999999999982</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4118,22 +4362,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1730736140.4731514</t>
+          <t>1731623431.572848</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1730736141.153167</t>
+          <t>1731623432.1459055</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736140.4731514.png</t>
+          <t>./test_images/BSPB1731623431.572848.png</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736141.153167.png</t>
+          <t>./test_images/BSPB1731623432.1459055.png</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4154,6 +4398,9 @@
       </c>
       <c r="K77" t="n">
         <v>0.1499999999999773</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="78">
@@ -4167,13 +4414,13 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1730736141.1711202</t>
+          <t>1731623432.1648552</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736141.1711202.png</t>
+          <t>./test_images/BSPB1731623432.1648552.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -4190,8 +4437,15 @@
       <c r="I78" t="n">
         <v>381.62</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>381.62</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4204,22 +4458,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1730736147.6506724</t>
+          <t>1731623439.020876</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1730736150.5388021</t>
+          <t>1731623441.8772213</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730736147.6506724.png</t>
+          <t>./test_images/FEES1731623439.020876.png</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730736150.5388021.png</t>
+          <t>./test_images/FEES1731623441.8772213.png</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4240,6 +4494,9 @@
       </c>
       <c r="K79" t="n">
         <v>0.0005399999999999988</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="80">
@@ -4253,22 +4510,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1730736150.920289</t>
+          <t>1731623442.2677453</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1730736152.2647429</t>
+          <t>1731623443.7250032</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730736150.920289.png</t>
+          <t>./test_images/FEES1731623442.2677453.png</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730736152.2647429.png</t>
+          <t>./test_images/FEES1731623443.7250032.png</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4289,6 +4546,9 @@
       </c>
       <c r="K80" t="n">
         <v>0.001719999999999999</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row r="81">
@@ -4302,13 +4562,13 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1730736156.3763015</t>
+          <t>1731623448.276898</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730736156.3763015.png</t>
+          <t>./test_images/FEES1731623448.276898.png</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -4325,8 +4585,15 @@
       <c r="I81" t="n">
         <v>0.09876000000000001</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0.09876000000000001</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4339,22 +4606,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1730736159.6590674</t>
+          <t>1731623451.8361368</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1730736161.528692</t>
+          <t>1731623453.669555</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736159.6590674.png</t>
+          <t>./test_images/MXI1731623451.8361368.png</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736161.528692.png</t>
+          <t>./test_images/MXI1731623453.669555.png</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4375,6 +4642,9 @@
       </c>
       <c r="K82" t="n">
         <v>-1.300000000000182</v>
+      </c>
+      <c r="L82" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="83">
@@ -4388,22 +4658,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1730736162.1849396</t>
+          <t>1731623454.3404965</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1730736162.4098487</t>
+          <t>1731623454.5700085</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736162.1849396.png</t>
+          <t>./test_images/MXI1731623454.3404965.png</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736162.4098487.png</t>
+          <t>./test_images/MXI1731623454.5700085.png</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4424,6 +4694,9 @@
       </c>
       <c r="K83" t="n">
         <v>3.599999999999909</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="84">
@@ -4437,22 +4710,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1730736162.8846095</t>
+          <t>1731623455.0875728</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1730736163.2277796</t>
+          <t>1731623455.4564447</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736162.8846095.png</t>
+          <t>./test_images/MXI1731623455.0875728.png</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736163.2277796.png</t>
+          <t>./test_images/MXI1731623455.4564447.png</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4473,6 +4746,9 @@
       </c>
       <c r="K84" t="n">
         <v>22.20000000000027</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.7100000000000001</v>
       </c>
     </row>
     <row r="85">
@@ -4486,22 +4762,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1730736163.6426554</t>
+          <t>1731623455.8884072</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1730736164.5894701</t>
+          <t>1731623456.9035099</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736163.6426554.png</t>
+          <t>./test_images/MXI1731623455.8884072.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736164.5894701.png</t>
+          <t>./test_images/MXI1731623456.9035099.png</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4522,6 +4798,9 @@
       </c>
       <c r="K85" t="n">
         <v>37.54999999999973</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="86">
@@ -4535,22 +4814,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1730736165.1285632</t>
+          <t>1731623457.440756</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1730736165.6710901</t>
+          <t>1731623457.9825897</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736165.1285632.png</t>
+          <t>./test_images/MXI1731623457.440756.png</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736165.6710901.png</t>
+          <t>./test_images/MXI1731623457.9825897.png</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4571,6 +4850,9 @@
       </c>
       <c r="K86" t="n">
         <v>14.5</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="87">
@@ -4584,22 +4866,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1730736172.0115397</t>
+          <t>1731623464.8748229</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1730736175.8230774</t>
+          <t>1731623469.0736947</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730736172.0115397.png</t>
+          <t>./test_images/RUAL1731623464.8748229.png</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730736175.8230774.png</t>
+          <t>./test_images/RUAL1731623469.0736947.png</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4620,6 +4902,9 @@
       </c>
       <c r="K87" t="n">
         <v>-0.07500000000000284</v>
+      </c>
+      <c r="L87" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="88">
@@ -4633,22 +4918,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1730736175.8410292</t>
+          <t>1731623469.0916471</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1730736176.2464168</t>
+          <t>1731623469.4607913</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730736175.8410292.png</t>
+          <t>./test_images/RUAL1731623469.0916471.png</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730736176.2464168.png</t>
+          <t>./test_images/RUAL1731623469.4607913.png</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4669,6 +4954,321 @@
       </c>
       <c r="K88" t="n">
         <v>0.490000000000002</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1731623480.3065498</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1731623481.090371</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623480.3065498.png</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623481.090371.png</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>660.4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>660.8</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-0.3999999999999773</v>
+      </c>
+      <c r="L89" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1731623481.1083205</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1731623481.2338862</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623481.1083205.png</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623481.2338862.png</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>660.8</v>
+      </c>
+      <c r="J90" t="n">
+        <v>661.3</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1731623482.8581474</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1731623484.4448063</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623482.8581474.png</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623484.4448063.png</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>661.2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>650.1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>11.10000000000002</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1731623484.7990274</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1731623486.9642084</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623484.7990274.png</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623486.9642084.png</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>654.8</v>
+      </c>
+      <c r="J92" t="n">
+        <v>652</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2.799999999999955</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1731623486.9861214</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1731623487.918278</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623486.9861214.png</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623487.918278.png</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>652</v>
+      </c>
+      <c r="J93" t="n">
+        <v>654.1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2.100000000000023</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1731623491.6365724</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1731623492.7111907</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623491.6365724.png</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623492.7111907.png</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>653.3</v>
+      </c>
+      <c r="J94" t="n">
+        <v>651.4</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1.899999999999977</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -4682,7 +5282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4706,6 +5306,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4719,6 +5334,15 @@
       <c r="C2" t="n">
         <v>9</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.199999999999995</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4732,57 +5356,102 @@
       <c r="C3" t="n">
         <v>8</v>
       </c>
+      <c r="D3" t="n">
+        <v>-0.04125000000000156</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>7.480000000000075</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
+      <c r="D4" t="n">
+        <v>1.068571428571439</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999999999995453</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.480000000000075</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.54999999999973</v>
+        <v>0.9999999999995453</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1666666666665909</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
@@ -4795,21 +5464,39 @@
         <v>17.50000000000011</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.916666666666686</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>ABIO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.049999999999997</v>
+        <v>-0.6100000000000065</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.1220000000000013</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4821,33 +5508,60 @@
         <v>-2.900000000000006</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.5800000000000012</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-2.01</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.450000000000003</v>
+        <v>76.54999999999973</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>15.30999999999995</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ABIO</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.6100000000000065</v>
+        <v>2.049999999999997</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4099999999999994</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="13">
@@ -4862,6 +5576,15 @@
       <c r="C13" t="n">
         <v>4</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.9949999999999974</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4875,71 +5598,143 @@
       <c r="C14" t="n">
         <v>4</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.980000000000004</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>BSPB</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.979999999999961</v>
+        <v>1.450000000000003</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3625000000000007</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>BSPB</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.6099999999999923</v>
+        <v>3.979999999999961</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9949999999999903</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4149999999999991</v>
+        <v>0.002259999999999998</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0007533333333333327</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.002259999999999998</v>
+        <v>-0.6099999999999923</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
+      <c r="D18" t="n">
+        <v>-0.3049999999999962</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4149999999999991</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.2074999999999996</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/ST1/ST1_26.07.24_output.xlsx
+++ b/docs/ST1/ST1_26.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731623247.6979434</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731623248.087189</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731623247.6979434.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731623248.087189.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>299.35</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>297.4</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.950000000000045</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731623248.4805717</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731623249.0032723</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731623248.4805717.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731623249.0032723.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>298.69</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>296.43</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>2.259999999999991</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.76</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731623249.022223</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731623249.7432098</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731623249.022223.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731623249.7432098.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>296.43</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>296.3</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.1299999999999955</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731623249.760166</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731623250.757005</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731623249.760166.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731623250.757005.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>296.3</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>295.22</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>1.079999999999984</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731623251.2625206</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731623252.3323877</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731623251.2625206.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731623252.3323877.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>294.94</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>294.03</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.910000000000025</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731623252.3483446</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731623256.4575763</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731623252.3483446.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731623256.4575763.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>294.03</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>295.44</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1.410000000000025</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -851,95 +903,107 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731623256.6487503</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731623256.6487503.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731623256.6487503.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>294.52</v>
       </c>
-      <c r="J9" t="n">
-        <v>294.52</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>294.26</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.2599999999999909</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731623262.6136324</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731623262.715942</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731623262.6136324.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731623262.715942.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>135.96</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>134.91</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>1.050000000000011</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.77</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731623263.1620028</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731623263.6895137</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731623263.1620028.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731623263.6895137.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>135.33</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>134.45</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.8800000000000239</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731623263.705471</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731623264.666971</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731623263.705471.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731623264.666971.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>134.45</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>133.67</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.7800000000000011</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.58</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731623264.6829123</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731623265.4887695</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731623264.6829123.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731623265.4887695.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>133.67</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>133.86</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.1900000000000261</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731623265.5047</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731623266.7244558</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731623265.5047.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731623266.7244558.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>133.86</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>133.12</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.7400000000000091</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.5499999999999999</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731623266.7403858</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731623270.070844</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731623266.7403858.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731623270.070844.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>133.12</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>134.99</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-1.870000000000005</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-1.4</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731623270.0868645</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731623271.0000403</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731623270.0868645.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731623271.0000403.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>134.99</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>135.75</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.7599999999999909</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731623271.9230418</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731623272.4065378</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731623271.9230418.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731623272.4065378.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>135.57</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>135.01</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731623272.7544975</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731623273.4138625</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623272.7544975.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623273.4138625.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6922</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6965</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-43</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.62</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731623273.429821</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731623276.7889626</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623273.429821.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623276.7889626.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6965</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6949</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-16</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731623276.8049214</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731623277.166198</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623276.8049214.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623277.166198.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6949</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6925.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>23.5</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731623277.619313</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731623278.6346433</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623277.619313.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623278.6346433.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6936</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6902</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>34</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731623279.2296736</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731623280.047365</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623279.2296736.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623280.047365.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6913.5</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6907.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>6</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731623280.4273233</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731623280.746062</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623280.4273233.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623280.746062.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6919</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6867.5</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>51.5</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.74</v>
       </c>
     </row>
@@ -1623,51 +1765,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731623281.1125684</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731623287.0164218</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623281.1125684.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623287.0164218.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6893.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6927.5</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-34</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731623292.4808557</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731623293.284757</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731623292.4808557.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731623293.284757.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>533.95</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>524.9</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>9.050000000000068</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>1.69</v>
       </c>
     </row>
@@ -1727,51 +1881,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731623293.5316455</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731623294.7096107</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731623293.5316455.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731623294.7096107.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>529.05</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>522.9</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>6.149999999999977</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -1779,51 +1939,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731623295.86914</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731623296.5566273</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731623295.86914.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731623296.5566273.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>521.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>521.5</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1831,51 +1997,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731623296.5725572</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731623298.126886</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731623296.5725572.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731623298.126886.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>521.5</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>521.95</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.4500000000000455</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1883,51 +2055,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731623298.7971282</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731623300.031931</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731623298.7971282.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731623300.031931.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>522.9</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>524.75</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>1.850000000000023</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1935,95 +2113,107 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731623300.2799304</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731623300.2799304.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731623300.2799304.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>523.55</v>
       </c>
-      <c r="J30" t="n">
-        <v>523.55</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>524.9</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.350000000000023</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731623302.171728</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731623304.4200287</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623302.171728.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623304.4200287.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1097.2</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1094.8</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-2.400000000000091</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -2031,51 +2221,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731623305.8410428</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731623306.4365852</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623305.8410428.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623306.4365852.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1094.2</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1096.6</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>2.399999999999864</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2083,51 +2279,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731623306.4535675</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731623306.5702703</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623306.4535675.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623306.5702703.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1096.6</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1088.4</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>8.199999999999818</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -2135,51 +2337,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731623307.0509772</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731623307.4629068</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623307.0509772.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623307.4629068.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1087</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1078.6</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>8.400000000000091</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.77</v>
       </c>
     </row>
@@ -2187,51 +2395,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731623307.4798615</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731623308.4095004</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623307.4798615.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623308.4095004.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1078.6</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1074.4</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-4.199999999999818</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -2239,51 +2453,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731623308.42543</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731623309.2271852</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623308.42543.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623309.2271852.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1074.4</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1075.2</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.7999999999999545</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -2291,51 +2511,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731623309.2441115</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731623310.4727578</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623309.2441115.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623310.4727578.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1075.2</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1062.4</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-12.79999999999995</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-1.19</v>
       </c>
     </row>
@@ -2343,51 +2569,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731623310.4896848</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731623311.0308356</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623310.4896848.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623311.0308356.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1062.4</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1063</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.5999999999999091</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2395,51 +2627,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731623311.0477908</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731623312.9653509</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623311.0477908.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731623312.9653509.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1063</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1066.6</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>3.599999999999909</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2447,51 +2685,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731623317.462138</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731623317.8040159</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731623317.462138.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731623317.8040159.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>130.82</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>131</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2499,51 +2743,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731623317.8201923</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731623318.6982605</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731623317.8201923.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731623318.6982605.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>131</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>130.7</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.3000000000000114</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -2551,51 +2801,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731623321.6045504</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731623322.679591</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731623321.6045504.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731623322.679591.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>129.48</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>126.94</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>2.539999999999992</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>1.96</v>
       </c>
     </row>
@@ -2603,51 +2859,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731623323.1513748</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731623323.703397</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731623323.1513748.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731623323.703397.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>127.48</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>126.58</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.9000000000000057</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -2655,51 +2917,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731623331.1325188</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731623333.6446495</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731623331.1325188.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731623333.6446495.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>173.5</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>174.92</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>1.419999999999987</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.8200000000000001</v>
       </c>
     </row>
@@ -2707,51 +2975,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731623334.8858802</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731623335.6571589</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731623334.8858802.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731623335.6571589.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>176</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>174.5</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-1.5</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.8500000000000001</v>
       </c>
     </row>
@@ -2759,51 +3033,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731623335.6741416</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731623336.5917168</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731623335.6741416.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731623336.5917168.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>174.5</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>171.62</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>2.879999999999995</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>1.65</v>
       </c>
     </row>
@@ -2811,51 +3091,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731623342.3030236</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731623343.3377094</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731623342.3030236.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731623343.3377094.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>170.42</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>171.6</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>1.180000000000007</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -2863,51 +3149,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731623351.7523296</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731623352.4773812</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731623351.7523296.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731623352.4773812.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>52.5</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>52.2</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.2999999999999972</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -2915,51 +3207,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731623352.4943368</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731623358.5017698</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731623352.4943368.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731623358.5017698.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>52.2</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>52.51</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.3099999999999952</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.59</v>
       </c>
     </row>
@@ -2967,51 +3265,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731623358.98875</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731623360.6906016</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731623358.98875.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731623360.6906016.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1460</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1460</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3019,51 +3323,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731623363.311882</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731623363.8288612</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731623363.311882.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731623363.8288612.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1452.8</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1448.8</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>4</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -3071,51 +3381,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731623363.8448277</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731623364.9857697</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731623363.8448277.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731623364.9857697.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1448.8</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1445.6</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-3.200000000000045</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -3123,51 +3439,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731623365.0036938</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731623365.5112197</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731623365.0036938.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731623365.5112197.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1445.6</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1438.2</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>7.399999999999864</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -3175,51 +3497,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731623366.6309931</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731623369.9540353</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731623366.6309931.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731623369.9540353.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>1422.8</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>1438.4</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-15.60000000000014</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-1.1</v>
       </c>
     </row>
@@ -3227,51 +3555,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731623369.97099</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731623371.2501137</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731623369.97099.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731623371.2501137.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>1438.4</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>1446.8</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>8.399999999999864</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -3279,51 +3613,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731623372.857253</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731623373.324812</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731623372.857253.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731623373.324812.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>63.5</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>63.54</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.03999999999999915</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -3331,51 +3671,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731623373.3407698</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731623374.9176831</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731623373.3407698.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731623374.9176831.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>63.54</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>63.78</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.240000000000002</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -3383,51 +3729,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731623376.170559</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731623376.6272361</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731623376.170559.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731623376.6272361.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>63.73</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>63.15</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.5799999999999983</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.91</v>
       </c>
     </row>
@@ -3435,51 +3787,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731623377.062538</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731623378.0422282</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731623377.062538.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731623378.0422282.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>63.36</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>62.47</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.8900000000000006</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>1.4</v>
       </c>
     </row>
@@ -3487,51 +3845,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731623378.5421789</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731623379.0806158</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731623378.5421789.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731623379.0806158.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>62.41</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>62.03</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -3539,51 +3903,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731623389.7912276</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731623390.916251</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731623389.7912276.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731623390.916251.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>58.46</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>57.66</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.8000000000000043</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>1.37</v>
       </c>
     </row>
@@ -3591,51 +3961,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731623391.2616901</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731623392.2911215</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SELG1731623391.2616901.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SELG1731623392.2911215.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>57.88</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>56.84</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>1.039999999999999</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -3643,51 +4019,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731623393.1949685</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731623396.3573449</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SELG1731623393.1949685.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SELG1731623396.3573449.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>56.53</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>57.1</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.5700000000000003</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-1.01</v>
       </c>
     </row>
@@ -3695,51 +4077,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731623398.1961815</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731623398.5020287</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SELG1731623398.1961815.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SELG1731623398.5020287.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>57.27</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>57.09</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.1799999999999997</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -3747,51 +4135,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731623399.158967</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731623400.3490841</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731623399.158967.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731623400.3490841.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>144.82</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>144.58</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.2399999999999807</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -3799,51 +4193,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731623400.365071</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731623401.852276</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731623400.365071.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731623401.852276.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>144.58</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>145.02</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.4399999999999977</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -3851,51 +4251,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731623401.868235</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731623403.3771474</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731623401.868235.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731623403.3771474.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>145.02</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>143.76</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-1.260000000000019</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.8699999999999999</v>
       </c>
     </row>
@@ -3903,51 +4309,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731623403.8313613</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731623405.0286877</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731623403.8313613.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731623405.0286877.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>143</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>142.04</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.960000000000008</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.67</v>
       </c>
     </row>
@@ -3955,95 +4367,107 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731623405.387519</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731623405.387519.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731623405.387519.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>141.66</v>
       </c>
-      <c r="J69" t="n">
-        <v>141.66</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>140.08</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-1.579999999999984</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-1.12</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731623413.0880883</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731623414.1585324</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731623413.0880883.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731623414.1585324.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>58.48</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>58.31</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.1699999999999946</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -4051,51 +4475,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731623415.245613</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731623416.260759</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731623415.245613.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731623416.260759.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>58.56</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>57.24</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-1.32</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>-2.25</v>
       </c>
     </row>
@@ -4103,51 +4533,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731623416.2777421</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731623417.1574614</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731623416.2777421.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731623417.1574614.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>57.24</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>56.52</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.7199999999999989</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>1.26</v>
       </c>
     </row>
@@ -4155,51 +4591,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731623418.7621796</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731623423.2871687</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731623418.7621796.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731623423.2871687.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>56.15</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>56.33</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.1799999999999997</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -4207,95 +4649,107 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731623424.1161544</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731623424.1161544.png</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731623424.1161544.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>56.2</v>
       </c>
-      <c r="J74" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>56.07</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.1300000000000026</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731623426.026492</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731623426.7217846</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731623426.026492.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731623426.7217846.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>382.56</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>382</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -4303,51 +4757,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731623428.9475265</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731623430.6443684</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731623428.9475265.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731623430.6443684.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>384.5</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>381.23</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>3.269999999999982</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.8500000000000001</v>
       </c>
     </row>
@@ -4355,51 +4815,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731623431.572848</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731623432.1459055</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731623431.572848.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731623432.1459055.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>381.77</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>381.62</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.1499999999999773</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -4407,95 +4873,107 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731623432.1648552</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731623432.1648552.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731623432.1648552.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>381.62</v>
       </c>
-      <c r="J78" t="n">
-        <v>381.62</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>383.6</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.980000000000018</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731623439.020876</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731623441.8772213</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/FEES1731623439.020876.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/FEES1731623441.8772213.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>0.10122</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>0.10068</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.0005399999999999988</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -4503,51 +4981,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731623442.2677453</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731623443.7250032</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/FEES1731623442.2677453.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/FEES1731623443.7250032.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>0.10058</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>0.09886</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.001719999999999999</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>1.71</v>
       </c>
     </row>
@@ -4555,95 +5039,107 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731623448.276898</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731623448.276898.png</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731623448.276898.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>0.09876000000000001</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.09876000000000001</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>0.09826</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.0005000000000000143</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731623451.8361368</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731623453.669555</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/MXI1731623451.8361368.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/MXI1731623453.669555.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>3131.3</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>3130</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-1.300000000000182</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -4651,51 +5147,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731623454.3404965</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731623454.5700085</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/MXI1731623454.3404965.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/MXI1731623454.5700085.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>3132.85</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>3136.45</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>3.599999999999909</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -4703,51 +5205,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731623455.0875728</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731623455.4564447</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/MXI1731623455.0875728.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/MXI1731623455.4564447.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>3132.4</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>3110.2</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>22.20000000000027</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -4755,51 +5263,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731623455.8884072</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731623456.9035099</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/MXI1731623455.8884072.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/MXI1731623456.9035099.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>3117.95</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>3080.4</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>37.54999999999973</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -4807,51 +5321,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731623457.440756</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731623457.9825897</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/MXI1731623457.440756.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/MXI1731623457.9825897.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>3088.55</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>3074.05</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>14.5</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -4859,51 +5379,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731623464.8748229</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731623469.0736947</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731623464.8748229.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731623469.0736947.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>37.865</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>37.79</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.07500000000000284</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -4911,51 +5437,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731623469.0916471</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731623469.4607913</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731623469.0916471.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731623469.4607913.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>37.79</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>37.3</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.490000000000002</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>1.3</v>
       </c>
     </row>
@@ -4963,51 +5495,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731623480.3065498</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731623481.090371</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/TATN1731623480.3065498.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/TATN1731623481.090371.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>660.4</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>660.8</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>-0.3999999999999773</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -5015,51 +5553,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731623481.1083205</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731623481.2338862</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/TATN1731623481.1083205.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/TATN1731623481.2338862.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>660.8</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>661.3</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.5</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -5067,51 +5611,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731623482.8581474</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731623484.4448063</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/TATN1731623482.8581474.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/TATN1731623484.4448063.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>661.2</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>650.1</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>11.10000000000002</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>1.68</v>
       </c>
     </row>
@@ -5119,51 +5669,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731623484.7990274</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731623486.9642084</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/TATN1731623484.7990274.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/TATN1731623486.9642084.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>654.8</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>652</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -5171,51 +5727,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731623486.9861214</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731623487.918278</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/TATN1731623486.9861214.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/TATN1731623487.918278.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>652</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>654.1</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>2.100000000000023</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -5223,51 +5785,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731623491.6365724</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731623492.7111907</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/TATN1731623491.6365724.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/TATN1731623492.7111907.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>653.3</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>651.4</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>1.899999999999977</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -5373,19 +5941,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.480000000000075</v>
+        <v>7.220000000000084</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.068571428571439</v>
+        <v>1.031428571428583</v>
       </c>
       <c r="E4" t="n">
-        <v>2.52</v>
+        <v>2.43</v>
       </c>
       <c r="F4" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -5461,19 +6029,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.50000000000011</v>
+        <v>18.85000000000014</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>2.916666666666686</v>
+        <v>3.141666666666689</v>
       </c>
       <c r="E8" t="n">
-        <v>3.29</v>
+        <v>3.55</v>
       </c>
       <c r="F8" t="n">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="9">
@@ -5483,19 +6051,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.6100000000000065</v>
+        <v>-0.480000000000004</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1220000000000013</v>
+        <v>-0.09600000000000079</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.02</v>
+        <v>-0.79</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="10">
@@ -5505,19 +6073,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2.900000000000006</v>
+        <v>-4.47999999999999</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.5800000000000012</v>
+        <v>-0.8959999999999979</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.01</v>
+        <v>-3.13</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="11">
@@ -5637,19 +6205,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.979999999999961</v>
+        <v>5.95999999999998</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9949999999999903</v>
+        <v>1.489999999999995</v>
       </c>
       <c r="E16" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="F16" t="n">
-        <v>0.26</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="17">
@@ -5659,19 +6227,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.002259999999999998</v>
+        <v>0.001759999999999984</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0007533333333333327</v>
+        <v>0.0005866666666666612</v>
       </c>
       <c r="E17" t="n">
-        <v>2.24</v>
+        <v>1.73</v>
       </c>
       <c r="F17" t="n">
-        <v>0.75</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="18">
